--- a/Documentation/Minutes.xlsx
+++ b/Documentation/Minutes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\4th\Honours Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\4th\Honours Project\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Graphical Enigma Simulator</t>
   </si>
@@ -41,7 +41,10 @@
     <t>Minutes of meetings</t>
   </si>
   <si>
-    <t>Date and Time</t>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
 </sst>
 </file>
@@ -77,9 +80,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,20 +403,40 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>41887</v>
       </c>
+      <c r="B8" s="2">
+        <v>0.47916666666666669</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>41920</v>
       </c>
+      <c r="B9" s="2">
+        <v>0.47916666666666669</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>41927</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>41934</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.47916666666666669</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Minutes.xlsx
+++ b/Documentation/Minutes.xlsx
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,6 +439,14 @@
         <v>0.47916666666666669</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>41940</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Documentation/Minutes.xlsx
+++ b/Documentation/Minutes.xlsx
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,6 +447,14 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>41947</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Documentation/Minutes.xlsx
+++ b/Documentation/Minutes.xlsx
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,6 +455,22 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>41954</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>41961</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Documentation/Minutes.xlsx
+++ b/Documentation/Minutes.xlsx
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,6 +471,22 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>41968</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>41976</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Documentation/Minutes.xlsx
+++ b/Documentation/Minutes.xlsx
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,6 +487,30 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>42024</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>42031</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>42038</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Documentation/Minutes.xlsx
+++ b/Documentation/Minutes.xlsx
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,6 +511,30 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>42045</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>42055</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>42060</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Documentation/Minutes.xlsx
+++ b/Documentation/Minutes.xlsx
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,6 +535,14 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>42066</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Documentation/Minutes.xlsx
+++ b/Documentation/Minutes.xlsx
@@ -364,9 +364,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -543,6 +543,14 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>42073</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Documentation/Minutes.xlsx
+++ b/Documentation/Minutes.xlsx
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,6 +551,14 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>42080</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Documentation/Minutes.xlsx
+++ b/Documentation/Minutes.xlsx
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,6 +559,22 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>42088</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Documentation/Minutes.xlsx
+++ b/Documentation/Minutes.xlsx
@@ -51,13 +51,40 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -80,10 +107,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,212 +397,215 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>41887</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>0.47916666666666669</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>41920</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>0.47916666666666669</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <v>41927</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>0.47916666666666669</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
         <v>41934</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>0.47916666666666669</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <v>41940</v>
       </c>
-      <c r="B12" s="2">
-        <v>0.54166666666666663</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="B12" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <v>41947</v>
       </c>
-      <c r="B13" s="2">
-        <v>0.54166666666666663</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="B13" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
         <v>41954</v>
       </c>
-      <c r="B14" s="2">
-        <v>0.54166666666666663</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="B14" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <v>41961</v>
       </c>
-      <c r="B15" s="2">
-        <v>0.54166666666666663</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="B15" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>41968</v>
       </c>
-      <c r="B16" s="2">
-        <v>0.54166666666666663</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="B16" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
         <v>41976</v>
       </c>
-      <c r="B17" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="B17" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
         <v>42024</v>
       </c>
-      <c r="B18" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="B18" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
         <v>42031</v>
       </c>
-      <c r="B19" s="2">
-        <v>0.54166666666666663</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="B19" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
         <v>42038</v>
       </c>
-      <c r="B20" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="B20" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
         <v>42045</v>
       </c>
-      <c r="B21" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="B21" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
         <v>42055</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="3">
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
         <v>42060</v>
       </c>
-      <c r="B23" s="2">
-        <v>0.54166666666666663</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="B23" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
         <v>42066</v>
       </c>
-      <c r="B24" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="B24" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
         <v>42073</v>
       </c>
-      <c r="B25" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="B25" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
         <v>42080</v>
       </c>
-      <c r="B26" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="B26" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
         <v>42088</v>
       </c>
-      <c r="B27" s="2">
-        <v>0.54166666666666663</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="B27" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
         <v>42094</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="3">
         <v>0.5</v>
       </c>
     </row>
